--- a/Actividades/FISICA/bitacora/bitacora de proceso.xlsx
+++ b/Actividades/FISICA/bitacora/bitacora de proceso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.MESA\Desktop\CalcNomina\items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\sena\Actividades\FISICA\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A584F-313A-4010-84FA-2F40E575C6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3E12F-BE03-4751-BAFC-DF327F937CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,21 +72,6 @@
     <t>La edición del video</t>
   </si>
   <si>
-    <t>Conocer la segunda y la tercera ley de Newton</t>
-  </si>
-  <si>
-    <t>recconocer y aplicar los calculos teneiendo en cuienta las diferentes magnitudes físicas</t>
-  </si>
-  <si>
-    <t>Aprendezije sobre la fuerza de gravedad y los conceptos de la energía potencial</t>
-  </si>
-  <si>
-    <t>Conocer las diferentes funentes de energía para ser transformadas en energía eléctrica</t>
-  </si>
-  <si>
-    <t>Sintetizar todo el conocimiento adquirido y poderlo exponer de una forma resumida y organizada</t>
-  </si>
-  <si>
     <t>Evaluar el econocimiento de los principios y leyes físicas aplicados al a sucesos de la vida cotidiana</t>
   </si>
   <si>
@@ -100,13 +85,57 @@
   </si>
   <si>
     <t>Llevar un orden cronológico en cuanto a la ejecución de todas las actividades planteadas durante la fese en que se encuentra el proceso formativo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conocer la segunda y la tercera ley de Newton.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://youtu.be/gvFVnP055QE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conocer las diferentes funentes de energía para ser transformadas en energía eléctrica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://youtu.be/5HRIJH9Gn0Y</t>
+    </r>
+  </si>
+  <si>
+    <t>Aprendezije sobre la fuerza de gravedad y los conceptos de la energía potencial.</t>
+  </si>
+  <si>
+    <t>Sintetizar todo el conocimiento adquirido y poderlo exponer de una forma resumida y organizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recconocer y aplicar los calculos teneiendo en cuienta las diferentes magnitudes físicas.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +159,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -225,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -256,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,22 +478,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -464,19 +504,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -492,8 +535,111 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>657224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2419349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F47B1B5-8FC0-4F2C-A5E4-3EB9DC72AF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="7958" t="11218" r="27995" b="14521"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8086725" y="866774"/>
+          <a:ext cx="2143125" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>638174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2609850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81618AD-9738-4AAC-BF16-A00EEF1CA20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="37512" t="22131" r="8484" b="28464"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="4772024"/>
+          <a:ext cx="2200275" cy="1971676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{483BAF39-3E8F-4108-AFD2-5CF696629CF0}" name="Tabla1" displayName="Tabla1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{483BAF39-3E8F-4108-AFD2-5CF696629CF0}" name="Tabla1" displayName="Tabla1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:F6" xr:uid="{483BAF39-3E8F-4108-AFD2-5CF696629CF0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{37DA66AE-AC6B-4AC1-8E59-ECD182E1A142}" name="Nombre de la fase" dataDxfId="5"/>
@@ -775,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -820,10 +966,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>13</v>
@@ -840,16 +986,16 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -860,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -880,10 +1026,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
@@ -900,10 +1046,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -912,9 +1058,10 @@
     <row r="30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="24" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>